--- a/operate/business/test/data/order_shipping.xlsx
+++ b/operate/business/test/data/order_shipping.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28920" windowHeight="15285" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>商品ID</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>支付时间</t>
-  </si>
-  <si>
-    <t>选项</t>
   </si>
   <si>
     <t>备注</t>
@@ -112,11 +109,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -202,12 +199,6 @@
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -481,16 +472,16 @@
     <xf numFmtId="49" fontId="13" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -818,29 +809,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
-    <col min="12" max="12" width="35.5" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="35.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" customHeight="1">
+    <row r="1" spans="1:14" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -865,37 +855,34 @@
       <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="6">
         <v>1024</v>
@@ -907,36 +894,35 @@
         <v>41345.645046296297</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="14">
+        <v>12356</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="M2">
-        <v>12356</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6">
         <v>1024</v>
@@ -947,31 +933,30 @@
       <c r="F3" s="11">
         <v>41345.645046296297</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="L3">
+        <v>12356</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M3">
-        <v>12356</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:14" ht="12.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -980,14 +965,13 @@
       <c r="F4" s="10"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:14" ht="12.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1001,9 +985,8 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:14" ht="12.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1017,9 +1000,8 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:14" ht="12.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1033,9 +1015,8 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:14" ht="12.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1049,9 +1030,8 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1065,9 +1045,8 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:14" ht="12.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1081,9 +1060,8 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:14" ht="12.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1097,9 +1075,8 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:14" ht="12.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1113,9 +1090,8 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:14" ht="12.75" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1129,9 +1105,8 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:14" ht="12.75" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1145,9 +1120,8 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:14" ht="12.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1161,9 +1135,8 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:14" ht="12.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1177,9 +1150,8 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" ht="12.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:13" ht="12.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1193,9 +1165,8 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" ht="12.75" customHeight="1">
+    </row>
+    <row r="18" spans="1:13" ht="12.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1209,9 +1180,8 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" ht="12.75" customHeight="1">
+    </row>
+    <row r="19" spans="1:13" ht="12.75" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1225,9 +1195,8 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" ht="12.75" customHeight="1">
+    </row>
+    <row r="20" spans="1:13" ht="12.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1241,7 +1210,6 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
